--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-353700.2385211305</v>
+        <v>-355587.8200375322</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>264.1949060168083</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -710,10 +710,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>335.3714908753282</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.87170836083675</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>275.4666232302527</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>92.78478400245945</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>105.083968396267</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.4814587683036</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>157.0044783406142</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>111.634235870763</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>99.22048016534548</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>153.3694495664122</v>
+        <v>59.6638564154457</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.24570608526556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.153727875008</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>66.26648834231614</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>91.04645315989194</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.93899791649622</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.315822205652</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.51875615035217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7570164269335</v>
       </c>
     </row>
     <row r="23">
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>53.58997482934233</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>203.8435192151925</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>105.9852024927119</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533805</v>
+        <v>124.6287235533806</v>
       </c>
       <c r="C31" t="n">
-        <v>112.043564470071</v>
+        <v>112.0435644700711</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965557</v>
+        <v>93.41221638965567</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801238</v>
+        <v>91.23070601801248</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437446</v>
+        <v>3.256222267504606</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897934</v>
+        <v>93.71057173897944</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571521</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20383876095467</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550466</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298326</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700207</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952712</v>
+        <v>196.9343866952713</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080342</v>
+        <v>231.3197417080343</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604804</v>
+        <v>170.5063987604805</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235381</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337368</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1284.970060705655</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1018.106519274536</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4325,22 +4325,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X2" t="n">
-        <v>1675.109392681467</v>
+        <v>2147.505845071312</v>
       </c>
       <c r="Y2" t="n">
-        <v>1284.970060705655</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694738</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694738</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D4" t="n">
-        <v>288.5951747571381</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E4" t="n">
-        <v>140.682081174745</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F4" t="n">
-        <v>140.682081174745</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G4" t="n">
-        <v>140.682081174745</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H4" t="n">
-        <v>140.682081174745</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>2204.611553462392</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>2204.611553462392</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>2204.611553462392</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,7 +4580,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
         <v>2544.691559791253</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2548.398397505828</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2294.636612143919</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1963.573724800349</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1610.805069530235</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>1237.339311269155</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.974978926224</v>
+        <v>847.1999792933431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4689,7 +4689,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
         <v>200.8329293182748</v>
@@ -4732,7 +4732,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
         <v>529.6040388502502</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>610.4709450465318</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>610.4709450465318</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>610.4709450465318</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>610.4709450465318</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>610.4709450465318</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>610.4709450465318</v>
+        <v>569.538602044198</v>
       </c>
       <c r="X7" t="n">
-        <v>382.4813941485145</v>
+        <v>569.538602044198</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.4813941485145</v>
+        <v>348.7460229006679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1381.442801724942</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>995.6545491266972</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>584.6686443370897</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>166.7048362352766</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4835,19 +4835,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2111.958421263255</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2111.958421263255</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X8" t="n">
-        <v>2111.958421263255</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>1739.708500331692</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,25 +4881,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.806220357135</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C10" t="n">
-        <v>543.7934291343875</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>393.6767897220517</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>393.6767897220517</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="11">
@@ -5021,55 +5021,55 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
         <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823717</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514029</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795202</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5103,37 +5103,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256437</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277041</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341689</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1124.11521831152</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1453.977845975553</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278214</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>615.7499579788655</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>446.8137750509586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>446.8137750509586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>298.9006814685655</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>152.0107339706551</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>152.0107339706551</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>152.0107339706551</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
+        <v>97.21709146028583</v>
+      </c>
+      <c r="J13" t="n">
+        <v>109.5997839242005</v>
+      </c>
+      <c r="K13" t="n">
+        <v>259.7851881688119</v>
+      </c>
+      <c r="L13" t="n">
+        <v>507.4972331799411</v>
+      </c>
+      <c r="M13" t="n">
+        <v>779.0639759471239</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1049.608084974672</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1283.483062980068</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1460.082827585751</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1498.916270557907</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1498.916270557907</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1298.996260473459</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1158.436939387593</v>
+      </c>
+      <c r="U13" t="n">
+        <v>869.3083006011506</v>
+      </c>
+      <c r="V13" t="n">
+        <v>614.6238123952637</v>
+      </c>
+      <c r="W13" t="n">
+        <v>325.2066423583032</v>
+      </c>
+      <c r="X13" t="n">
         <v>97.21709146028584</v>
       </c>
-      <c r="J13" t="n">
-        <v>109.5997839241959</v>
-      </c>
-      <c r="K13" t="n">
-        <v>259.7851881688076</v>
-      </c>
-      <c r="L13" t="n">
-        <v>507.497233179937</v>
-      </c>
-      <c r="M13" t="n">
-        <v>779.0639759471202</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1049.608084974668</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1283.483062980065</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1460.082827585748</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1498.916270557905</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1387.84116711973</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1387.84116711973</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1387.84116711973</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1387.84116711973</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1133.156678913844</v>
-      </c>
-      <c r="W13" t="n">
-        <v>843.7395088768828</v>
-      </c>
-      <c r="X13" t="n">
-        <v>615.7499579788655</v>
-      </c>
       <c r="Y13" t="n">
-        <v>615.7499579788655</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,40 +5264,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5340,43 +5340,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256437</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>339.7502131046217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>953.647282861511</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253973</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918007</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136704</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918914</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>592.5368061590586</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C16" t="n">
-        <v>423.6006232311518</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>423.6006232311518</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>275.6875296487586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799372</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471203</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473457</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262963</v>
+        <v>1406.950156254981</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.210845262963</v>
+        <v>1406.950156254981</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570759</v>
+        <v>1152.265668049094</v>
       </c>
       <c r="W16" t="n">
-        <v>820.5263570570759</v>
+        <v>862.8484980121334</v>
       </c>
       <c r="X16" t="n">
-        <v>592.5368061590586</v>
+        <v>634.8589471141161</v>
       </c>
       <c r="Y16" t="n">
-        <v>592.5368061590586</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5501,22 +5501,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5546,19 +5546,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>804.0893717830343</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1495.947585793765</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1495.947585793765</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1495.947585793765</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1495.947585793765</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>1495.947585793765</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>1206.530415756804</v>
+        <v>241.9805482336717</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.530415756804</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.737836613274</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,22 +5735,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.0663679705858</v>
+        <v>527.8045051785805</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>358.8683222506736</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383379</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655739</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286133</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="X22" t="n">
-        <v>634.8589471141159</v>
+        <v>905.1671280158238</v>
       </c>
       <c r="Y22" t="n">
-        <v>414.0663679705858</v>
+        <v>709.4529700088202</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6029,10 +6029,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>638.877892226835</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>469.9417092989282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,7 +6145,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688073</v>
@@ -6181,16 +6181,16 @@
         <v>1075.210845262961</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570746</v>
+        <v>820.5263570570743</v>
       </c>
       <c r="W25" t="n">
-        <v>820.5263570570746</v>
+        <v>531.1091870201137</v>
       </c>
       <c r="X25" t="n">
-        <v>820.5263570570746</v>
+        <v>303.1196361220964</v>
       </c>
       <c r="Y25" t="n">
-        <v>820.5263570570746</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488384</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>644.1080300429516</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>354.6908600059909</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6440,22 +6440,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6464,7 +6464,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6549,7 +6549,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4603630227182</v>
+        <v>494.8466681110168</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761818</v>
+        <v>381.6713504644803</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452165</v>
+        <v>287.3155763335149</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441939</v>
+        <v>195.1633480324922</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276541</v>
+        <v>191.8742346309722</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276541</v>
+        <v>191.8742346309722</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864669</v>
+        <v>164.2510079864668</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933496</v>
+        <v>369.0876362933494</v>
       </c>
       <c r="L31" t="n">
-        <v>671.45090536675</v>
+        <v>671.4509053667498</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196204</v>
+        <v>997.6688721962037</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286023</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353691</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021645</v>
+        <v>1842.641396021644</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056072</v>
       </c>
       <c r="R31" t="n">
-        <v>1914.708044105613</v>
+        <v>1936.126063056072</v>
       </c>
       <c r="S31" t="n">
-        <v>1770.548899302536</v>
+        <v>1791.966918252994</v>
       </c>
       <c r="T31" t="n">
-        <v>1602.524349373412</v>
+        <v>1623.94236832387</v>
       </c>
       <c r="U31" t="n">
-        <v>1369.156575868341</v>
+        <v>1390.5745948188</v>
       </c>
       <c r="V31" t="n">
-        <v>1170.232952943825</v>
+        <v>1191.650971894283</v>
       </c>
       <c r="W31" t="n">
-        <v>936.5766481882343</v>
+        <v>957.9946671386929</v>
       </c>
       <c r="X31" t="n">
-        <v>764.3479625715873</v>
+        <v>785.7659815220459</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3479625715873</v>
+        <v>620.7342676598861</v>
       </c>
     </row>
     <row r="32">
@@ -6680,55 +6680,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,28 +6765,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,10 +6853,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6929,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108341</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229683</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506737</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083217</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504524</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045217</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010327</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7166,37 +7166,37 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7397,46 +7397,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982976</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525396</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028821</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>285.1031356539281</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906598969</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>52.49733361304811</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445199</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>96.03744927814685</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>56.17353937900635</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.3938331833812</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>79.15455968061511</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>130.5011078984973</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>107.0253544872966</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338517</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>195.190899238685</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>24.82763692516124</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>95.02549818887002</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.4192454642719</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690233</v>
       </c>
     </row>
     <row r="26">
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>119.7244528963253</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>86.96156912686996</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348208</v>
+        <v>111.2903118348209</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571529</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>33.55725701428135</v>
+        <v>54.7610957752361</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.381396723538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>246312.530959285</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="D2" t="n">
         <v>246312.5309592849</v>
@@ -26323,10 +26323,10 @@
         <v>234617.4358426252</v>
       </c>
       <c r="F2" t="n">
+        <v>234617.4358426251</v>
+      </c>
+      <c r="G2" t="n">
         <v>234617.4358426252</v>
-      </c>
-      <c r="G2" t="n">
-        <v>234617.4358426251</v>
       </c>
       <c r="H2" t="n">
         <v>234617.4358426251</v>
@@ -26335,7 +26335,7 @@
         <v>234617.4358426251</v>
       </c>
       <c r="J2" t="n">
-        <v>234617.4358426251</v>
+        <v>234617.4358426252</v>
       </c>
       <c r="K2" t="n">
         <v>244093.2824071618</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768972</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284543</v>
+        <v>44162.60530284535</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086713</v>
+        <v>10342.90680086717</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284544</v>
+        <v>44162.60530284536</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143914</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15045.66962143912</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="J4" t="n">
         <v>15045.66962143907</v>
       </c>
-      <c r="H4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15045.6696214391</v>
-      </c>
       <c r="K4" t="n">
-        <v>33210.29213563554</v>
+        <v>33210.29213563551</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275965</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26497,19 +26497,19 @@
         <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="N5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583289.3845698916</v>
+        <v>-583289.3845698915</v>
       </c>
       <c r="C6" t="n">
-        <v>6678.494644652921</v>
+        <v>6678.494644652761</v>
       </c>
       <c r="D6" t="n">
-        <v>6678.494644652805</v>
+        <v>6678.49464465279</v>
       </c>
       <c r="E6" t="n">
-        <v>-397575.5962044278</v>
+        <v>-397673.0553303987</v>
       </c>
       <c r="F6" t="n">
-        <v>127584.4402724695</v>
+        <v>127486.9811464972</v>
       </c>
       <c r="G6" t="n">
-        <v>127584.4402724704</v>
+        <v>127486.9811464973</v>
       </c>
       <c r="H6" t="n">
-        <v>127584.4402724694</v>
+        <v>127486.9811464972</v>
       </c>
       <c r="I6" t="n">
-        <v>127584.4402724693</v>
+        <v>127486.9811464972</v>
       </c>
       <c r="J6" t="n">
-        <v>-48838.7789201235</v>
+        <v>-48936.23804609566</v>
       </c>
       <c r="K6" t="n">
-        <v>70092.17643845809</v>
+        <v>70073.68270052384</v>
       </c>
       <c r="L6" t="n">
         <v>100790.0614756329</v>
       </c>
       <c r="M6" t="n">
-        <v>-23668.04695733712</v>
+        <v>-23668.04695733702</v>
       </c>
       <c r="N6" t="n">
         <v>111132.9682765001</v>
@@ -26561,7 +26561,7 @@
         <v>111132.9682765001</v>
       </c>
       <c r="P6" t="n">
-        <v>66970.36297365469</v>
+        <v>66970.36297365479</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>5.558090511567635e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26762,16 +26762,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545557</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108391</v>
+        <v>12.92863350108397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285568</v>
+        <v>55.2032566285567</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237015</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.137005040047435e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>101.0779857541992</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>50.86644778072542</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>49.09391343150148</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>11.05637510633835</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>123.6635363551983</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.1539702597867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>30.18373321185425</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>129.5185199959768</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>212.2885368935941</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>228.5317783047894</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>13.87737153221562</v>
+        <v>107.5829646831821</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.849454171562684e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855679</v>
+        <v>55.20325662855669</v>
       </c>
     </row>
     <row r="32">
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932188</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34939,22 +34939,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490697</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879397</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>595.5275127043951</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178385</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315253</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016557037</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841501977</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490697</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>203.0727722009879</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594841</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004669</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315253</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850745</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>137.9476282330535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556562</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799286</v>
@@ -36528,10 +36528,10 @@
         <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187476</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941223</v>
+        <v>67.71102679412222</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584673</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084853</v>
+        <v>305.4174435084852</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075293</v>
+        <v>329.5130978075292</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341604</v>
+        <v>328.4801344341603</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491596</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403575</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043153</v>
+        <v>94.42895660043145</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
